--- a/fileTemp.xlsx
+++ b/fileTemp.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -54,25 +54,43 @@
     <t>Project 1 Task 1</t>
   </si>
   <si>
-    <t>PT1H</t>
+    <t>PT1H30M</t>
   </si>
   <si>
     <t>Project 1 Task 2</t>
   </si>
   <si>
+    <t>PT1H50M</t>
+  </si>
+  <si>
+    <t>Project 1 Task 3</t>
+  </si>
+  <si>
+    <t>PT1H55M</t>
+  </si>
+  <si>
+    <t>Project 2</t>
+  </si>
+  <si>
+    <t>Project 2 Task 1</t>
+  </si>
+  <si>
+    <t>PT30M</t>
+  </si>
+  <si>
+    <t>PT1H10M</t>
+  </si>
+  <si>
+    <t>PT10M</t>
+  </si>
+  <si>
     <t>PT20M</t>
   </si>
   <si>
-    <t>Project 1 Task 3</t>
-  </si>
-  <si>
-    <t>Project 2</t>
-  </si>
-  <si>
-    <t>Project 2 Task 1</t>
-  </si>
-  <si>
-    <t>PT0S</t>
+    <t>Project 2 Task 2</t>
+  </si>
+  <si>
+    <t>PT1H40M</t>
   </si>
 </sst>
 </file>
@@ -398,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -450,10 +468,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>45452.470201435186</v>
+        <v>45451.333333333336</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>45453.71527777778</v>
+        <v>45451.395833333336</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>9</v>
@@ -473,10 +491,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>45452.47020145833</v>
+        <v>45451.42361111111</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>45453.71527777778</v>
+        <v>45451.5</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>11</v>
@@ -496,13 +514,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>45452.47020145833</v>
+        <v>45451.5625</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>45453.71527777778</v>
+        <v>45451.64236111111</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -510,22 +528,22 @@
         <v>5.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="b" s="0">
         <v>1</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>45452.47020145833</v>
+        <v>45452.354166666664</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>45453.71527777778</v>
+        <v>45452.375</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -536,19 +554,19 @@
         <v>7</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="b" s="0">
         <v>1</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>45452.47020145833</v>
+        <v>45452.416666666664</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>45453.71527777778</v>
+        <v>45452.46527777778</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -562,14 +580,85 @@
         <v>10</v>
       </c>
       <c r="D7" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>45452.47020145833</v>
-      </c>
-      <c r="F7" s="0"/>
+        <v>45452.47222222222</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>45452.479166666664</v>
+      </c>
       <c r="G7" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D8" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>45452.48611111111</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>45452.5</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>15</v>
+      </c>
+      <c r="D9" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>45452.506944444445</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>45452.52777777778</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D10" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>45452.541666666664</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>45452.61111111111</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
